--- a/data/LESP_ATPU_coords.xlsx
+++ b/data/LESP_ATPU_coords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://007gc-my.sharepoint.com/personal/david_iles_ec_gc_ca/Documents/Iles/Projects/Seabirds/Petrel_Puffin_Trend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{522AE6F4-DF59-4996-AD93-1D2CBC4EAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{522AE6F4-DF59-4996-AD93-1D2CBC4EAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37C5D8F3-7D2D-4FDC-82D0-197C2EAFA164}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6809DD6-BA52-4676-AE3A-7C01051FB8AE}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6809DD6-BA52-4676-AE3A-7C01051FB8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ATPU_coords" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="296">
   <si>
     <t>Colony</t>
   </si>
@@ -356,9 +356,6 @@
     <t>SCF 2022</t>
   </si>
   <si>
-    <t>Ile aux Perroquets</t>
-  </si>
-  <si>
     <t>ROBERGE 1999C</t>
   </si>
   <si>
@@ -374,12 +371,6 @@
     <t>Refuge de baie des Loups</t>
   </si>
   <si>
-    <t>Refuge des îles aux Perroquets</t>
-  </si>
-  <si>
-    <t>Refuge des îles Sainte-Marie</t>
-  </si>
-  <si>
     <t>Refuge de la baie de Brador</t>
   </si>
   <si>
@@ -395,9 +386,6 @@
     <t>SCF 1995</t>
   </si>
   <si>
-    <t>Refuge de Gros Mécatina</t>
-  </si>
-  <si>
     <t>Ile Bonaventure</t>
   </si>
   <si>
@@ -888,13 +876,61 @@
   </si>
   <si>
     <t>Middle Lawn Island, NF</t>
+  </si>
+  <si>
+    <t>Ile a la Brume</t>
+  </si>
+  <si>
+    <t>Iles aux Perroquets</t>
+  </si>
+  <si>
+    <t>SCF 2024</t>
+  </si>
+  <si>
+    <t>Refuge des iles Sainte-Marie</t>
+  </si>
+  <si>
+    <t>Refuge des iles aux Perroquets</t>
+  </si>
+  <si>
+    <t>Refuge de Gros Mecatina</t>
+  </si>
+  <si>
+    <t>Refuge de baie des Loups, QC</t>
+  </si>
+  <si>
+    <t>Refuge de Betchouane, QC</t>
+  </si>
+  <si>
+    <t>Refuge de Gros Mecatina, QC</t>
+  </si>
+  <si>
+    <t>Refuge de la baie de Brador, QC</t>
+  </si>
+  <si>
+    <t>Refuge des iles aux Perroquets, QC</t>
+  </si>
+  <si>
+    <t>Refuge des iles Sainte-Marie, QC</t>
+  </si>
+  <si>
+    <t>Ile du Corossol, QC</t>
+  </si>
+  <si>
+    <t>Iles aux Perroquets, QC</t>
+  </si>
+  <si>
+    <t>Ile a la Brume, QC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1081,11 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1230,7 +1271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1345,6 +1386,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1390,7 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1398,6 +1450,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1773,64 +1829,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F068EFF-403F-41FC-9B3B-C97A1BBF02AA}">
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83984375" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -1839,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1">
         <v>66</v>
@@ -1857,12 +1913,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -1889,12 +1945,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>50</v>
@@ -1919,12 +1975,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -1949,12 +2005,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>93</v>
@@ -1979,12 +2035,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1994,7 +2050,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1">
         <v>2017</v>
@@ -2009,12 +2065,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -2039,12 +2095,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>92</v>
@@ -2069,12 +2125,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2099,12 +2155,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
@@ -2131,12 +2187,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>89</v>
@@ -2161,12 +2217,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>48</v>
@@ -2191,12 +2247,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -2221,12 +2277,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>77</v>
@@ -2251,12 +2307,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>64</v>
@@ -2281,12 +2337,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2311,12 +2367,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -2325,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1">
         <v>14132</v>
@@ -2343,12 +2399,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>34</v>
@@ -2357,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F19" s="1">
         <v>844</v>
@@ -2375,12 +2431,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>35</v>
@@ -2389,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1">
         <v>12560</v>
@@ -2407,12 +2463,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -2421,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1">
         <v>9164</v>
@@ -2439,12 +2495,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
@@ -2453,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F22" s="1">
         <v>398</v>
@@ -2471,12 +2527,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>54</v>
@@ -2486,7 +2542,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1">
         <v>2014</v>
@@ -2501,12 +2557,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>52</v>
@@ -2516,7 +2572,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1">
         <v>2014</v>
@@ -2531,12 +2587,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>87</v>
@@ -2545,7 +2601,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1">
         <v>348982</v>
@@ -2563,12 +2619,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>101</v>
@@ -2593,12 +2649,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>84</v>
@@ -2606,7 +2662,9 @@
       <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="F27" s="1">
         <v>18532</v>
       </c>
@@ -2623,12 +2681,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>96</v>
@@ -2638,7 +2696,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1">
         <v>2016</v>
@@ -2653,12 +2711,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>83</v>
@@ -2667,7 +2725,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1">
         <v>336190</v>
@@ -2685,12 +2743,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>70</v>
@@ -2715,12 +2773,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -2745,12 +2803,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -2775,12 +2833,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
@@ -2805,12 +2863,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -2819,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F34" s="1">
         <v>3944</v>
@@ -2837,12 +2895,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>29</v>
@@ -2851,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1">
         <v>17966</v>
@@ -2869,12 +2927,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>30</v>
@@ -2883,7 +2941,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1">
         <v>4490</v>
@@ -2901,1194 +2959,1196 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>36</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1997</v>
-      </c>
-      <c r="H37" s="1">
-        <v>50.220719510000002</v>
-      </c>
-      <c r="I37" s="1">
-        <v>-64.206059600000003</v>
+      <c r="E37" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6">
+        <v>50.196816290000001</v>
+      </c>
+      <c r="I37" s="6">
+        <v>-60.507444659999997</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="F38" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H38" s="1">
-        <v>48.495028380000001</v>
+        <v>50.220719510000002</v>
       </c>
       <c r="I38" s="1">
-        <v>-64.162490559999995</v>
+        <v>-64.206059600000003</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H39" s="1">
-        <v>47.78984818</v>
+        <v>48.495028380000001</v>
       </c>
       <c r="I39" s="1">
-        <v>-61.473017120000002</v>
+        <v>-64.162490559999995</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
-        <v>1136</v>
+        <v>46</v>
       </c>
       <c r="G40" s="1">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="H40" s="1">
-        <v>50.217966689999997</v>
+        <v>47.78984818</v>
       </c>
       <c r="I40" s="1">
-        <v>-64.200484680000002</v>
+        <v>-61.473017120000002</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>1136</v>
       </c>
       <c r="G41" s="1">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H41" s="1">
-        <v>50.164875610000003</v>
+        <v>50.217966689999997</v>
       </c>
       <c r="I41" s="1">
-        <v>-60.188324989999998</v>
+        <v>-64.200484680000002</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>130</v>
+      <c r="F42" s="1">
+        <v>4</v>
       </c>
       <c r="G42" s="1">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="H42" s="1">
-        <v>50.090282240000001</v>
+        <v>50.164875610000003</v>
       </c>
       <c r="I42" s="1">
-        <v>-66.386236879999998</v>
+        <v>-60.188324989999998</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
-        <v>40</v>
+      <c r="E43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G43" s="1">
-        <v>1995</v>
+        <v>2022</v>
       </c>
       <c r="H43" s="1">
-        <v>50.235899879999998</v>
+        <v>50.090282240000001</v>
       </c>
       <c r="I43" s="1">
-        <v>-60.181601639999997</v>
+        <v>-66.386236879999998</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G44" s="1">
-        <v>1942</v>
+        <v>1995</v>
       </c>
       <c r="H44" s="1">
-        <v>50.924930000000003</v>
+        <v>50.235899879999998</v>
       </c>
       <c r="I44" s="1">
-        <v>-57.182200000000002</v>
+        <v>-60.181601639999997</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1">
-        <v>1978</v>
+        <v>1942</v>
       </c>
       <c r="H45" s="1">
-        <v>55.900019999999998</v>
+        <v>50.924930000000003</v>
       </c>
       <c r="I45" s="1">
-        <v>-60.565559999999998</v>
+        <v>-57.182200000000002</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
-        <v>4400</v>
+        <v>220</v>
       </c>
       <c r="G46" s="1">
         <v>1978</v>
       </c>
       <c r="H46" s="1">
-        <v>56.210889999999999</v>
+        <v>55.900019999999998</v>
       </c>
       <c r="I46" s="1">
-        <v>-60.476280000000003</v>
+        <v>-60.565559999999998</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <v>268</v>
+        <v>4400</v>
       </c>
       <c r="G47" s="1">
-        <v>2014</v>
+        <v>1978</v>
       </c>
       <c r="H47" s="1">
-        <v>49.814509999999999</v>
+        <v>56.210889999999999</v>
       </c>
       <c r="I47" s="1">
-        <v>-54.110759999999999</v>
+        <v>-60.476280000000003</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
+        <v>268</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H48" s="1">
+        <v>49.814509999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-54.110759999999999</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
         <v>1000</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <v>1975</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <v>48.683349999999997</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="1">
         <v>-53.591999999999999</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="1">
         <v>1984</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>49.818800000000003</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I50" s="1">
         <v>-54.180900000000001</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1">
+      <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
         <v>50</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G51" s="1">
         <v>2001</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <v>49.813899999999997</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="1">
         <v>-54.124699999999997</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="J51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>17270</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G52" s="1">
         <v>2019</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <v>44.501820000000002</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I52" s="1">
         <v>-67.101870000000005</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H52" s="1">
-        <v>43.48639</v>
-      </c>
-      <c r="I52" s="1">
-        <v>-65.988429999999994</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G53" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H53" s="1">
+        <v>43.48639</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-65.988429999999994</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="1">
         <v>1978</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H54" s="1">
         <v>56.350029999999997</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I54" s="1">
         <v>-60.548879999999997</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1">
         <v>100</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G55" s="1">
         <v>2018</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H55" s="1">
         <v>43.464700000000001</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I55" s="1">
         <v>-65.984719999999996</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <v>18782</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G56" s="1">
         <v>2019</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H56" s="1">
         <v>48.633679999999998</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I56" s="1">
         <v>-53.015479999999997</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1978</v>
-      </c>
-      <c r="H56" s="1">
-        <v>54.417900000000003</v>
-      </c>
-      <c r="I56" s="1">
-        <v>-57.182319999999997</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G57" s="1">
         <v>1978</v>
       </c>
       <c r="H57" s="1">
-        <v>54.433300000000003</v>
+        <v>54.417900000000003</v>
       </c>
       <c r="I57" s="1">
-        <v>-57.182139999999997</v>
+        <v>-57.182319999999997</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H58" s="1">
+        <v>54.433300000000003</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-57.182139999999997</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="1">
         <v>8338</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G59" s="1">
         <v>2010</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H59" s="1">
         <v>54.399970000000003</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I59" s="1">
         <v>-57.315480000000001</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="3">
         <v>34441</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <v>2022</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <v>50.198</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <v>-60.204729999999998</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1">
-        <v>6800</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1978</v>
-      </c>
-      <c r="H60" s="1">
-        <v>56.050020000000004</v>
-      </c>
-      <c r="I60" s="1">
-        <v>-60.46555</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <v>8108</v>
+        <v>6800</v>
       </c>
       <c r="G61" s="1">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="H61" s="1">
-        <v>54.001510000000003</v>
+        <v>56.050020000000004</v>
       </c>
       <c r="I61" s="1">
-        <v>-56.537550000000003</v>
+        <v>-60.46555</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
+        <v>8108</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="1">
+        <v>54.001510000000003</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-56.537550000000003</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1">
         <v>150</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G63" s="1">
         <v>2008</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H63" s="1">
         <v>44.383769999999998</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I63" s="1">
         <v>-64.049130000000005</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="J63" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F64" s="1">
         <v>3700</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G64" s="1">
         <v>2010</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H64" s="1">
         <v>47.191549999999999</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I64" s="1">
         <v>-52.837179999999996</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="J64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="1">
         <v>17762</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G65" s="1">
         <v>2018</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H65" s="1">
         <v>49.433219999999999</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I65" s="1">
         <v>-53.790489999999998</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1">
+      <c r="D66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1">
         <v>100</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G66" s="1">
         <v>2012</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H66" s="1">
         <v>49.817999999999998</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I66" s="1">
         <v>-54.094499999999996</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="D67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="1">
         <v>2018</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H67" s="1">
         <v>49.548229999999997</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="1">
         <v>-53.868819999999999</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="1" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1">
+      <c r="D68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1">
         <v>8250</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G68" s="1">
         <v>2014</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H68" s="1">
         <v>49.810400000000001</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I68" s="1">
         <v>-54.110999999999997</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="J68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1238</v>
-      </c>
-      <c r="G68" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H68" s="1">
-        <v>54.416629999999998</v>
-      </c>
-      <c r="I68" s="1">
-        <v>-57.382150000000003</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>130</v>
+      <c r="E69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1238</v>
       </c>
       <c r="G69" s="1">
-        <v>1978</v>
+        <v>2002</v>
       </c>
       <c r="H69" s="1">
-        <v>56.44173</v>
+        <v>54.416629999999998</v>
       </c>
       <c r="I69" s="1">
-        <v>-60.603549999999998</v>
+        <v>-57.382150000000003</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>4214</v>
+      <c r="F70" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G70" s="1">
         <v>1978</v>
       </c>
       <c r="H70" s="1">
-        <v>54.736890000000002</v>
+        <v>56.44173</v>
       </c>
       <c r="I70" s="1">
-        <v>-57.342979999999997</v>
+        <v>-60.603549999999998</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
-        <v>6</v>
+        <v>4214</v>
       </c>
       <c r="G71" s="1">
-        <v>2006</v>
+        <v>1978</v>
       </c>
       <c r="H71" s="1">
-        <v>43.684310000000004</v>
+        <v>54.736890000000002</v>
       </c>
       <c r="I71" s="1">
-        <v>-65.030270000000002</v>
+        <v>-57.342979999999997</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G72" s="1">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="H72" s="1">
-        <v>47.506070000000001</v>
+        <v>43.684310000000004</v>
       </c>
       <c r="I72" s="1">
-        <v>-57.434910000000002</v>
+        <v>-65.030270000000002</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
+        <v>150</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1989</v>
+      </c>
+      <c r="H73" s="1">
+        <v>47.506070000000001</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-57.434910000000002</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1">
         <v>1000</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G74" s="1">
         <v>1988</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H74" s="1">
         <v>50.666580000000003</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I74" s="1">
         <v>-55.582180000000001</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="J74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74" s="1">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="1">
         <v>1978</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H75" s="1">
         <v>54.716639999999998</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I75" s="1">
         <v>-57.748820000000002</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1">
-        <v>756</v>
-      </c>
-      <c r="G75" s="1">
-        <v>2022</v>
-      </c>
-      <c r="H75" s="1">
-        <v>50.205015340000003</v>
-      </c>
-      <c r="I75" s="1">
-        <v>-60.249414399999999</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>111</v>
@@ -4096,1754 +4156,1767 @@
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="F76" s="1">
-        <v>832</v>
+        <v>756</v>
       </c>
       <c r="G76" s="1">
         <v>2022</v>
       </c>
       <c r="H76" s="1">
-        <v>50.196544250000002</v>
+        <v>50.205015340000003</v>
       </c>
       <c r="I76" s="1">
-        <v>-63.20481479</v>
+        <v>-60.249414399999999</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="F77" s="1">
-        <v>58</v>
+        <v>832</v>
       </c>
       <c r="G77" s="1">
         <v>2022</v>
       </c>
       <c r="H77" s="1">
-        <v>50.751358629999999</v>
+        <v>50.196544250000002</v>
       </c>
       <c r="I77" s="1">
-        <v>-58.81374615</v>
+        <v>-63.20481479</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="F78" s="1">
-        <v>30554</v>
+        <v>58</v>
       </c>
       <c r="G78" s="1">
         <v>2022</v>
       </c>
       <c r="H78" s="1">
-        <v>51.388028419999998</v>
+        <v>50.751358629999999</v>
       </c>
       <c r="I78" s="1">
-        <v>-57.19899487</v>
+        <v>-58.81374615</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="F79" s="1">
-        <v>1146</v>
+        <v>30554</v>
       </c>
       <c r="G79" s="1">
         <v>2022</v>
       </c>
       <c r="H79" s="1">
-        <v>50.283058099999998</v>
+        <v>51.388028419999998</v>
       </c>
       <c r="I79" s="1">
-        <v>-59.740470080000001</v>
+        <v>-57.19899487</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="F80" s="1">
-        <v>2786</v>
+        <v>1146</v>
       </c>
       <c r="G80" s="1">
         <v>2022</v>
       </c>
       <c r="H80" s="1">
-        <v>50.314731260000002</v>
+        <v>50.283058099999998</v>
       </c>
       <c r="I80" s="1">
-        <v>-59.651869869999999</v>
+        <v>-59.740470080000001</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="F81" s="1">
-        <v>24</v>
+        <v>2786</v>
       </c>
       <c r="G81" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H81" s="1">
-        <v>47.839315130000003</v>
+        <v>50.314731260000002</v>
       </c>
       <c r="I81" s="1">
-        <v>-61.146601490000002</v>
+        <v>-59.651869869999999</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="G82" s="1">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="H82" s="1">
-        <v>50.899920000000002</v>
+        <v>47.839315130000003</v>
       </c>
       <c r="I82" s="1">
-        <v>-55.765520000000002</v>
+        <v>-61.146601490000002</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="G83" s="1">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="H83" s="1">
-        <v>43.505780000000001</v>
+        <v>50.899920000000002</v>
       </c>
       <c r="I83" s="1">
-        <v>-65.985429999999994</v>
+        <v>-55.765520000000002</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G84" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="H84" s="1">
-        <v>49.813200000000002</v>
+        <v>43.505780000000001</v>
       </c>
       <c r="I84" s="1">
-        <v>-54.136800000000001</v>
+        <v>-65.985429999999994</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G85" s="1">
-        <v>1990</v>
+        <v>2012</v>
       </c>
       <c r="H85" s="1">
-        <v>53.43327</v>
+        <v>49.813200000000002</v>
       </c>
       <c r="I85" s="1">
-        <v>-55.598779999999998</v>
+        <v>-54.136800000000001</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1">
-        <v>50</v>
+        <v>6000</v>
       </c>
       <c r="G86" s="1">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="H86" s="1">
-        <v>49.811999999999998</v>
+        <v>53.43327</v>
       </c>
       <c r="I86" s="1">
-        <v>-54.125599999999999</v>
+        <v>-55.598779999999998</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1">
+        <v>50</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H87" s="1">
+        <v>49.811999999999998</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-54.125599999999999</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1">
         <v>7916</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G88" s="1">
         <v>2014</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H88" s="1">
         <v>49.8185</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I88" s="1">
         <v>-54.113700000000001</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="J88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="1">
+      <c r="D89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="1">
         <v>33718</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G89" s="1">
         <v>2018</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="1">
         <v>49.579889999999999</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="1">
         <v>-53.778820000000003</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1985</v>
-      </c>
-      <c r="H89" s="1">
-        <v>48.624769999999998</v>
-      </c>
-      <c r="I89" s="1">
-        <v>-53.009059999999998</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G90" s="1">
         <v>1985</v>
       </c>
       <c r="H90" s="1">
-        <v>48.66818</v>
+        <v>48.624769999999998</v>
       </c>
       <c r="I90" s="1">
-        <v>-53.053019999999997</v>
+        <v>-53.009059999999998</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1">
+        <v>500</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1985</v>
+      </c>
+      <c r="H91" s="1">
+        <v>48.66818</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-53.053019999999997</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1">
         <v>150</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G92" s="1">
         <v>2012</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H92" s="1">
         <v>49.817</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I92" s="1">
         <v>-54.180500000000002</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="1" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1978</v>
-      </c>
-      <c r="H92" s="1">
-        <v>56.359250000000003</v>
-      </c>
-      <c r="I92" s="1">
-        <v>-60.656799999999997</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1">
-        <v>348</v>
+      <c r="F93" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G93" s="1">
-        <v>2002</v>
+        <v>1978</v>
       </c>
       <c r="H93" s="1">
-        <v>54.433300000000003</v>
+        <v>56.359250000000003</v>
       </c>
       <c r="I93" s="1">
-        <v>-57.34881</v>
+        <v>-60.656799999999997</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
+        <v>348</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H94" s="1">
+        <v>54.433300000000003</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-57.34881</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1">
         <v>80</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G95" s="1">
         <v>2005</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H95" s="1">
         <v>46.65822</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I95" s="1">
         <v>-53.232199999999999</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="1" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" s="1">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H95" s="1">
-        <v>54.416629999999998</v>
-      </c>
-      <c r="I95" s="1">
-        <v>-57.265479999999997</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>130</v>
+      <c r="E96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="1">
+        <v>10</v>
       </c>
       <c r="G96" s="1">
-        <v>1978</v>
+        <v>2010</v>
       </c>
       <c r="H96" s="1">
-        <v>54.697209999999998</v>
+        <v>54.416629999999998</v>
       </c>
       <c r="I96" s="1">
-        <v>-57.434919999999998</v>
+        <v>-57.265479999999997</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G97" s="1">
         <v>1978</v>
       </c>
       <c r="H97" s="1">
-        <v>54.416629999999998</v>
+        <v>54.697209999999998</v>
       </c>
       <c r="I97" s="1">
-        <v>-57.09881</v>
+        <v>-57.434919999999998</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H98" s="1">
+        <v>54.416629999999998</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-57.09881</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1">
-        <v>130</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1984</v>
-      </c>
-      <c r="H98" s="1">
-        <v>47.512720000000002</v>
-      </c>
-      <c r="I98" s="1">
-        <v>-57.355119999999999</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">
-        <v>540</v>
+        <v>130</v>
       </c>
       <c r="G99" s="1">
-        <v>1978</v>
+        <v>1984</v>
       </c>
       <c r="H99" s="1">
-        <v>56.203279999999999</v>
+        <v>47.512720000000002</v>
       </c>
       <c r="I99" s="1">
-        <v>-60.609729999999999</v>
+        <v>-57.355119999999999</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1">
+        <v>540</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H100" s="1">
+        <v>56.203279999999999</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-60.609729999999999</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1">
         <v>80</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G101" s="1">
         <v>2012</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H101" s="1">
         <v>49.816699999999997</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I101" s="1">
         <v>-54.139800000000001</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
         <v>79</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F102" s="4">
         <v>3909786</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>2013</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <v>48</v>
       </c>
-      <c r="I101">
+      <c r="I102">
         <v>-52.7988</v>
       </c>
-      <c r="J101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" t="s">
-        <v>154</v>
-      </c>
-      <c r="D102" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" s="4">
+      <c r="J102" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="4">
         <v>4634</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>2014</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>49.8155</v>
       </c>
-      <c r="I102">
+      <c r="I103">
         <v>-54.112699999999997</v>
       </c>
-      <c r="J102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D103" t="s">
-        <v>94</v>
-      </c>
-      <c r="F103">
-        <v>12</v>
-      </c>
-      <c r="G103">
-        <v>1981</v>
-      </c>
-      <c r="H103">
-        <v>44.869300000000003</v>
-      </c>
-      <c r="I103">
-        <v>-62.352699999999999</v>
-      </c>
       <c r="J103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>94</v>
       </c>
       <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>1981</v>
+      </c>
+      <c r="H104">
+        <v>44.869300000000003</v>
+      </c>
+      <c r="I104">
+        <v>-62.352699999999999</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105">
         <v>0</v>
       </c>
-      <c r="G104">
+      <c r="G105">
         <v>2017</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <v>44.3444</v>
       </c>
-      <c r="I104">
+      <c r="I105">
         <v>-64.145700000000005</v>
       </c>
-      <c r="J104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G106">
+        <v>1980</v>
+      </c>
+      <c r="H106">
+        <v>49.093000000000004</v>
+      </c>
+      <c r="I106">
+        <v>-53.557499999999997</v>
+      </c>
+      <c r="J106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>1978</v>
+      </c>
+      <c r="H107">
+        <v>54</v>
+      </c>
+      <c r="I107">
+        <v>-56.248800000000003</v>
+      </c>
+      <c r="J107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>1985</v>
+      </c>
+      <c r="H108">
+        <v>48.624699999999997</v>
+      </c>
+      <c r="I108">
+        <v>-53.009099999999997</v>
+      </c>
+      <c r="J108" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" t="s">
         <v>157</v>
       </c>
-      <c r="D105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G105">
-        <v>1980</v>
-      </c>
-      <c r="H105">
-        <v>49.093000000000004</v>
-      </c>
-      <c r="I105">
-        <v>-53.557499999999997</v>
-      </c>
-      <c r="J105" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D109" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2402</v>
+      </c>
+      <c r="G109">
+        <v>1981</v>
+      </c>
+      <c r="H109">
+        <v>44.866700000000002</v>
+      </c>
+      <c r="I109">
+        <v>-62.278700000000001</v>
+      </c>
+      <c r="J109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
         <v>158</v>
-      </c>
-      <c r="D106" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106">
-        <v>6</v>
-      </c>
-      <c r="G106">
-        <v>1978</v>
-      </c>
-      <c r="H106">
-        <v>54</v>
-      </c>
-      <c r="I106">
-        <v>-56.248800000000003</v>
-      </c>
-      <c r="J106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C107" t="s">
-        <v>160</v>
-      </c>
-      <c r="D107" t="s">
-        <v>42</v>
-      </c>
-      <c r="F107">
-        <v>100</v>
-      </c>
-      <c r="G107">
-        <v>1985</v>
-      </c>
-      <c r="H107">
-        <v>48.624699999999997</v>
-      </c>
-      <c r="I107">
-        <v>-53.009099999999997</v>
-      </c>
-      <c r="J107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" t="s">
-        <v>94</v>
-      </c>
-      <c r="F108" s="4">
-        <v>2402</v>
-      </c>
-      <c r="G108">
-        <v>1981</v>
-      </c>
-      <c r="H108">
-        <v>44.866700000000002</v>
-      </c>
-      <c r="I108">
-        <v>-62.278700000000001</v>
-      </c>
-      <c r="J108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" t="s">
-        <v>162</v>
-      </c>
-      <c r="D109" t="s">
-        <v>105</v>
-      </c>
-      <c r="F109" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109">
-        <v>1983</v>
-      </c>
-      <c r="H109">
-        <v>47.838099999999997</v>
-      </c>
-      <c r="I109">
-        <v>-61.145499999999998</v>
-      </c>
-      <c r="J109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" t="s">
-        <v>163</v>
       </c>
       <c r="D110" t="s">
         <v>105</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G110">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="H110">
-        <v>50.281799999999997</v>
+        <v>47.838099999999997</v>
       </c>
       <c r="I110">
-        <v>-59.731499999999997</v>
+        <v>-61.145499999999998</v>
       </c>
       <c r="J110" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
         <v>105</v>
       </c>
-      <c r="F111">
-        <v>0</v>
+      <c r="F111" t="s">
+        <v>126</v>
       </c>
       <c r="G111">
         <v>2015</v>
       </c>
       <c r="H111">
+        <v>50.281799999999997</v>
+      </c>
+      <c r="I111">
+        <v>-59.731499999999997</v>
+      </c>
+      <c r="J111" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>2015</v>
+      </c>
+      <c r="H112">
         <v>50.2849</v>
       </c>
-      <c r="I111">
+      <c r="I112">
         <v>-59.740600000000001</v>
       </c>
-      <c r="J111" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="J112" t="s">
         <v>264</v>
       </c>
-      <c r="C112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" t="s">
         <v>94</v>
       </c>
-      <c r="E112" t="s">
-        <v>166</v>
-      </c>
-      <c r="F112" s="4">
+      <c r="E113" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="4">
         <v>77832</v>
       </c>
-      <c r="G112">
+      <c r="G113">
         <v>2017</v>
       </c>
-      <c r="H112">
+      <c r="H113">
         <v>43.468899999999998</v>
       </c>
-      <c r="I112">
+      <c r="I113">
         <v>-65.751099999999994</v>
       </c>
-      <c r="J112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C113" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" t="s">
-        <v>105</v>
-      </c>
-      <c r="F113">
-        <v>30</v>
-      </c>
-      <c r="G113">
-        <v>2016</v>
-      </c>
-      <c r="H113">
-        <v>48.465699999999998</v>
-      </c>
-      <c r="I113">
-        <v>-64.211399999999998</v>
-      </c>
       <c r="J113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
         <v>105</v>
       </c>
       <c r="F114">
+        <v>30</v>
+      </c>
+      <c r="G114">
+        <v>2016</v>
+      </c>
+      <c r="H114">
+        <v>48.465699999999998</v>
+      </c>
+      <c r="I114">
+        <v>-64.211399999999998</v>
+      </c>
+      <c r="J114" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115">
         <v>6</v>
       </c>
-      <c r="G114">
+      <c r="G115">
         <v>2017</v>
       </c>
-      <c r="H114">
+      <c r="H115">
         <v>47.758400000000002</v>
       </c>
-      <c r="I114">
+      <c r="I115">
         <v>-61.536099999999998</v>
       </c>
-      <c r="J114" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="J115" t="s">
         <v>264</v>
       </c>
-      <c r="C115" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" t="s">
-        <v>94</v>
-      </c>
-      <c r="F115">
-        <v>50</v>
-      </c>
-      <c r="G115">
-        <v>1980</v>
-      </c>
-      <c r="H115">
-        <v>44.824599999999997</v>
-      </c>
-      <c r="I115">
-        <v>-62.356400000000001</v>
-      </c>
-      <c r="J115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D116" t="s">
         <v>94</v>
       </c>
       <c r="F116">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>1980</v>
       </c>
       <c r="H116">
+        <v>44.824599999999997</v>
+      </c>
+      <c r="I116">
+        <v>-62.356400000000001</v>
+      </c>
+      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>1980</v>
+      </c>
+      <c r="H117">
         <v>44.823399999999999</v>
       </c>
-      <c r="I116">
+      <c r="I117">
         <v>-62.360999999999997</v>
       </c>
-      <c r="J116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C117" t="s">
-        <v>171</v>
-      </c>
-      <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117">
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118">
         <v>400</v>
       </c>
-      <c r="G117">
+      <c r="G118">
         <v>1967</v>
       </c>
-      <c r="H117">
+      <c r="H118">
         <v>49.127600000000001</v>
       </c>
-      <c r="I117">
+      <c r="I118">
         <v>-53.483499999999999</v>
       </c>
-      <c r="J117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" t="s">
-        <v>172</v>
-      </c>
-      <c r="D118" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118">
+      <c r="J118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119">
         <v>6</v>
       </c>
-      <c r="G118">
+      <c r="G119">
         <v>2018</v>
       </c>
-      <c r="H118">
+      <c r="H119">
         <v>49.171500000000002</v>
       </c>
-      <c r="I118">
+      <c r="I119">
         <v>-53.3688</v>
       </c>
-      <c r="J118" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C119" t="s">
-        <v>173</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="J119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" t="s">
         <v>94</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>176</v>
       </c>
-      <c r="G119">
+      <c r="G120">
         <v>1977</v>
       </c>
-      <c r="H119">
+      <c r="H120">
         <v>44.882199999999997</v>
       </c>
-      <c r="I119">
+      <c r="I120">
         <v>-62.155900000000003</v>
       </c>
-      <c r="J119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" t="s">
-        <v>105</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>1991</v>
-      </c>
-      <c r="H120">
-        <v>47.349200000000003</v>
-      </c>
-      <c r="I120">
-        <v>-61.884799999999998</v>
-      </c>
       <c r="J120" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
         <v>105</v>
       </c>
-      <c r="F121" t="s">
-        <v>130</v>
+      <c r="F121">
+        <v>0</v>
       </c>
       <c r="G121">
+        <v>1991</v>
+      </c>
+      <c r="H121">
+        <v>47.349200000000003</v>
+      </c>
+      <c r="I121">
+        <v>-61.884799999999998</v>
+      </c>
+      <c r="J121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122" t="s">
+        <v>126</v>
+      </c>
+      <c r="G122">
         <v>2015</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>50.304499999999997</v>
       </c>
-      <c r="I121">
+      <c r="I122">
         <v>-59.690100000000001</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J122" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="4">
+        <v>5812</v>
+      </c>
+      <c r="G123">
+        <v>2018</v>
+      </c>
+      <c r="H123">
+        <v>49.549799999999998</v>
+      </c>
+      <c r="I123">
+        <v>-53.8155</v>
+      </c>
+      <c r="J123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124">
+        <v>250</v>
+      </c>
+      <c r="G124">
+        <v>1977</v>
+      </c>
+      <c r="H124">
+        <v>46.889800000000001</v>
+      </c>
+      <c r="I124">
+        <v>-55.575200000000002</v>
+      </c>
+      <c r="J124" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+      <c r="G125">
+        <v>1987</v>
+      </c>
+      <c r="H125">
+        <v>48.574800000000003</v>
+      </c>
+      <c r="I125">
+        <v>-53.712200000000003</v>
+      </c>
+      <c r="J125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G126">
+        <v>1974</v>
+      </c>
+      <c r="H126">
+        <v>46.9649</v>
+      </c>
+      <c r="I126">
+        <v>-55.209499999999998</v>
+      </c>
+      <c r="J126" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
         <v>176</v>
-      </c>
-      <c r="D122" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="4">
-        <v>5812</v>
-      </c>
-      <c r="G122">
-        <v>2018</v>
-      </c>
-      <c r="H122">
-        <v>49.549799999999998</v>
-      </c>
-      <c r="I122">
-        <v>-53.8155</v>
-      </c>
-      <c r="J122" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" t="s">
-        <v>177</v>
-      </c>
-      <c r="D123" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123">
-        <v>250</v>
-      </c>
-      <c r="G123">
-        <v>1977</v>
-      </c>
-      <c r="H123">
-        <v>46.889800000000001</v>
-      </c>
-      <c r="I123">
-        <v>-55.575200000000002</v>
-      </c>
-      <c r="J123" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" t="s">
-        <v>178</v>
-      </c>
-      <c r="D124" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124">
-        <v>20</v>
-      </c>
-      <c r="G124">
-        <v>1987</v>
-      </c>
-      <c r="H124">
-        <v>48.574800000000003</v>
-      </c>
-      <c r="I124">
-        <v>-53.712200000000003</v>
-      </c>
-      <c r="J124" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" t="s">
-        <v>179</v>
-      </c>
-      <c r="D125" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G125">
-        <v>1974</v>
-      </c>
-      <c r="H125">
-        <v>46.9649</v>
-      </c>
-      <c r="I125">
-        <v>-55.209499999999998</v>
-      </c>
-      <c r="J125" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" t="s">
-        <v>180</v>
-      </c>
-      <c r="D126" t="s">
-        <v>94</v>
-      </c>
-      <c r="E126" t="s">
-        <v>181</v>
-      </c>
-      <c r="F126" s="4">
-        <v>24460</v>
-      </c>
-      <c r="G126">
-        <v>2013</v>
-      </c>
-      <c r="H126">
-        <v>45.101799999999997</v>
-      </c>
-      <c r="I126">
-        <v>-61.5426</v>
-      </c>
-      <c r="J126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" t="s">
-        <v>182</v>
       </c>
       <c r="D127" t="s">
         <v>94</v>
       </c>
-      <c r="F127" t="s">
-        <v>130</v>
+      <c r="E127" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="4">
+        <v>24460</v>
       </c>
       <c r="G127">
+        <v>2013</v>
+      </c>
+      <c r="H127">
+        <v>45.101799999999997</v>
+      </c>
+      <c r="I127">
+        <v>-61.5426</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" t="s">
+        <v>126</v>
+      </c>
+      <c r="G128">
         <v>2017</v>
       </c>
-      <c r="H127">
+      <c r="H128">
         <v>45.216900000000003</v>
       </c>
-      <c r="I127">
+      <c r="I128">
         <v>-61.249099999999999</v>
       </c>
-      <c r="J127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="J128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129">
+        <v>260</v>
+      </c>
+      <c r="G129">
+        <v>1978</v>
+      </c>
+      <c r="H129">
+        <v>52</v>
+      </c>
+      <c r="I129">
+        <v>-55.732199999999999</v>
+      </c>
+      <c r="J129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" t="s">
+        <v>180</v>
+      </c>
+      <c r="D130" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="4">
+        <v>4888</v>
+      </c>
+      <c r="G130">
+        <v>2014</v>
+      </c>
+      <c r="H130">
+        <v>49.816899999999997</v>
+      </c>
+      <c r="I130">
+        <v>-54.111400000000003</v>
+      </c>
+      <c r="J130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" t="s">
+        <v>126</v>
+      </c>
+      <c r="G131">
+        <v>1975</v>
+      </c>
+      <c r="H131">
+        <v>50</v>
+      </c>
+      <c r="I131">
+        <v>-54</v>
+      </c>
+      <c r="J131" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" t="s">
+        <v>105</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>2015</v>
+      </c>
+      <c r="H132">
+        <v>50.332500000000003</v>
+      </c>
+      <c r="I132">
+        <v>-59.625599999999999</v>
+      </c>
+      <c r="J132" t="s">
         <v>264</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s">
         <v>183</v>
       </c>
-      <c r="D128" t="s">
-        <v>159</v>
-      </c>
-      <c r="F128">
-        <v>260</v>
-      </c>
-      <c r="G128">
-        <v>1978</v>
-      </c>
-      <c r="H128">
-        <v>52</v>
-      </c>
-      <c r="I128">
-        <v>-55.732199999999999</v>
-      </c>
-      <c r="J128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133">
+        <v>150</v>
+      </c>
+      <c r="G133">
+        <v>1945</v>
+      </c>
+      <c r="H133">
+        <v>49.133200000000002</v>
+      </c>
+      <c r="I133">
+        <v>-53.465499999999999</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" t="s">
         <v>184</v>
-      </c>
-      <c r="D129" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="4">
-        <v>4888</v>
-      </c>
-      <c r="G129">
-        <v>2014</v>
-      </c>
-      <c r="H129">
-        <v>49.816899999999997</v>
-      </c>
-      <c r="I129">
-        <v>-54.111400000000003</v>
-      </c>
-      <c r="J129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" t="s">
-        <v>185</v>
-      </c>
-      <c r="D130" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130">
-        <v>1975</v>
-      </c>
-      <c r="H130">
-        <v>50</v>
-      </c>
-      <c r="I130">
-        <v>-54</v>
-      </c>
-      <c r="J130" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C131" t="s">
-        <v>186</v>
-      </c>
-      <c r="D131" t="s">
-        <v>105</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>2015</v>
-      </c>
-      <c r="H131">
-        <v>50.332500000000003</v>
-      </c>
-      <c r="I131">
-        <v>-59.625599999999999</v>
-      </c>
-      <c r="J131" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132" t="s">
-        <v>187</v>
-      </c>
-      <c r="D132" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132">
-        <v>150</v>
-      </c>
-      <c r="G132">
-        <v>1945</v>
-      </c>
-      <c r="H132">
-        <v>49.133200000000002</v>
-      </c>
-      <c r="I132">
-        <v>-53.465499999999999</v>
-      </c>
-      <c r="J132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" t="s">
-        <v>188</v>
-      </c>
-      <c r="D133" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" t="s">
-        <v>130</v>
-      </c>
-      <c r="G133">
-        <v>2015</v>
-      </c>
-      <c r="H133">
-        <v>50.408200000000001</v>
-      </c>
-      <c r="I133">
-        <v>-59.631700000000002</v>
-      </c>
-      <c r="J133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C134" t="s">
-        <v>189</v>
       </c>
       <c r="D134" t="s">
         <v>105</v>
       </c>
-      <c r="F134">
-        <v>0</v>
+      <c r="F134" t="s">
+        <v>126</v>
       </c>
       <c r="G134">
-        <v>1937</v>
+        <v>2015</v>
       </c>
       <c r="H134">
-        <v>48.802399999999999</v>
+        <v>50.408200000000001</v>
       </c>
       <c r="I134">
-        <v>-64.2333</v>
+        <v>-59.631700000000002</v>
       </c>
       <c r="J134" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C135" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D135" t="s">
         <v>105</v>
@@ -5852,442 +5925,442 @@
         <v>0</v>
       </c>
       <c r="G135">
+        <v>1937</v>
+      </c>
+      <c r="H135">
+        <v>48.802399999999999</v>
+      </c>
+      <c r="I135">
+        <v>-64.2333</v>
+      </c>
+      <c r="J135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
         <v>2015</v>
       </c>
-      <c r="H135">
+      <c r="H136">
         <v>50.298499999999997</v>
       </c>
-      <c r="I135">
+      <c r="I136">
         <v>-59.698399999999999</v>
       </c>
-      <c r="J135" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="J136" t="s">
         <v>264</v>
       </c>
-      <c r="C136" t="s">
-        <v>191</v>
-      </c>
-      <c r="D136" t="s">
-        <v>159</v>
-      </c>
-      <c r="F136" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" t="s">
+        <v>155</v>
+      </c>
+      <c r="F137" t="s">
+        <v>126</v>
+      </c>
+      <c r="G137">
         <v>1999</v>
       </c>
-      <c r="H136">
+      <c r="H137">
         <v>54</v>
       </c>
-      <c r="I136">
+      <c r="I137">
         <v>-57</v>
       </c>
-      <c r="J136" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C137" t="s">
-        <v>192</v>
-      </c>
-      <c r="D137" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137">
+      <c r="J137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138">
         <v>2</v>
       </c>
-      <c r="G137">
+      <c r="G138">
         <v>1945</v>
       </c>
-      <c r="H137">
+      <c r="H138">
         <v>47.666600000000003</v>
       </c>
-      <c r="I137">
+      <c r="I138">
         <v>-58.215699999999998</v>
       </c>
-      <c r="J137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C138" t="s">
-        <v>193</v>
-      </c>
-      <c r="D138" t="s">
-        <v>42</v>
-      </c>
-      <c r="F138" t="s">
-        <v>130</v>
-      </c>
-      <c r="G138">
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" t="s">
+        <v>126</v>
+      </c>
+      <c r="G139">
         <v>1975</v>
       </c>
-      <c r="H138">
+      <c r="H139">
         <v>50</v>
       </c>
-      <c r="I138">
+      <c r="I139">
         <v>-55</v>
       </c>
-      <c r="J138" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C139" t="s">
-        <v>194</v>
-      </c>
-      <c r="D139" t="s">
-        <v>42</v>
-      </c>
-      <c r="E139" t="s">
-        <v>140</v>
-      </c>
-      <c r="F139" s="4">
+      <c r="J139" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" s="4">
         <v>283496</v>
-      </c>
-      <c r="G139">
-        <v>2022</v>
-      </c>
-      <c r="H139">
-        <v>47</v>
-      </c>
-      <c r="I139">
-        <v>-53</v>
-      </c>
-      <c r="J139" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C140" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" t="s">
-        <v>42</v>
-      </c>
-      <c r="E140" t="s">
-        <v>283</v>
-      </c>
-      <c r="F140" s="4">
-        <v>87708</v>
       </c>
       <c r="G140">
         <v>2022</v>
       </c>
       <c r="H140">
+        <v>47</v>
+      </c>
+      <c r="I140">
+        <v>-53</v>
+      </c>
+      <c r="J140" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" s="4">
+        <v>87708</v>
+      </c>
+      <c r="G141">
+        <v>2022</v>
+      </c>
+      <c r="H141">
         <v>46.877600000000001</v>
       </c>
-      <c r="I140">
+      <c r="I141">
         <v>-56.0899</v>
       </c>
-      <c r="J140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="J141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142">
+        <v>20</v>
+      </c>
+      <c r="G142">
+        <v>1945</v>
+      </c>
+      <c r="H142">
+        <v>48.697899999999997</v>
+      </c>
+      <c r="I142">
+        <v>-53.1023</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" t="s">
+        <v>193</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143">
+        <v>40</v>
+      </c>
+      <c r="G143">
+        <v>1979</v>
+      </c>
+      <c r="H143">
+        <v>47.238199999999999</v>
+      </c>
+      <c r="I143">
+        <v>-52.780099999999997</v>
+      </c>
+      <c r="J143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" t="s">
+        <v>135</v>
+      </c>
+      <c r="F144" s="4">
+        <v>577080</v>
+      </c>
+      <c r="G144">
+        <v>2022</v>
+      </c>
+      <c r="H144">
+        <v>47</v>
+      </c>
+      <c r="I144">
+        <v>-53</v>
+      </c>
+      <c r="J144" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" t="s">
+        <v>195</v>
+      </c>
+      <c r="D145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145">
+        <v>50</v>
+      </c>
+      <c r="G145">
+        <v>1945</v>
+      </c>
+      <c r="H145">
+        <v>49.256399999999999</v>
+      </c>
+      <c r="I145">
+        <v>-53.429600000000001</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" t="s">
         <v>196</v>
       </c>
-      <c r="D141" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141">
-        <v>20</v>
-      </c>
-      <c r="G141">
-        <v>1945</v>
-      </c>
-      <c r="H141">
-        <v>48.697899999999997</v>
-      </c>
-      <c r="I141">
-        <v>-53.1023</v>
-      </c>
-      <c r="J141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D146" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146">
+        <v>360</v>
+      </c>
+      <c r="G146">
+        <v>1989</v>
+      </c>
+      <c r="H146">
+        <v>43.618899999999996</v>
+      </c>
+      <c r="I146">
+        <v>-66.037400000000005</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" t="s">
         <v>197</v>
       </c>
-      <c r="D142" t="s">
-        <v>42</v>
-      </c>
-      <c r="F142">
-        <v>40</v>
-      </c>
-      <c r="G142">
-        <v>1979</v>
-      </c>
-      <c r="H142">
-        <v>47.238199999999999</v>
-      </c>
-      <c r="I142">
-        <v>-52.780099999999997</v>
-      </c>
-      <c r="J142" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D147" t="s">
         <v>198</v>
       </c>
-      <c r="D143" t="s">
-        <v>42</v>
-      </c>
-      <c r="E143" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" s="4">
-        <v>577080</v>
-      </c>
-      <c r="G143">
-        <v>2022</v>
-      </c>
-      <c r="H143">
-        <v>47</v>
-      </c>
-      <c r="I143">
-        <v>-53</v>
-      </c>
-      <c r="J143" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="F147" t="s">
+        <v>126</v>
+      </c>
+      <c r="G147">
+        <v>2001</v>
+      </c>
+      <c r="H147">
+        <v>45</v>
+      </c>
+      <c r="I147">
+        <v>-67</v>
+      </c>
+      <c r="J147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" t="s">
         <v>199</v>
       </c>
-      <c r="D144" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144">
-        <v>50</v>
-      </c>
-      <c r="G144">
-        <v>1945</v>
-      </c>
-      <c r="H144">
-        <v>49.256399999999999</v>
-      </c>
-      <c r="I144">
-        <v>-53.429600000000001</v>
-      </c>
-      <c r="J144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148">
+        <v>18</v>
+      </c>
+      <c r="G148">
+        <v>2014</v>
+      </c>
+      <c r="H148">
+        <v>49.815800000000003</v>
+      </c>
+      <c r="I148">
+        <v>-54.115400000000001</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" t="s">
         <v>200</v>
       </c>
-      <c r="D145" t="s">
-        <v>94</v>
-      </c>
-      <c r="F145">
-        <v>360</v>
-      </c>
-      <c r="G145">
-        <v>1989</v>
-      </c>
-      <c r="H145">
-        <v>43.618899999999996</v>
-      </c>
-      <c r="I145">
-        <v>-66.037400000000005</v>
-      </c>
-      <c r="J145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D149" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>1978</v>
+      </c>
+      <c r="H149">
+        <v>54</v>
+      </c>
+      <c r="I149">
+        <v>-57.098799999999997</v>
+      </c>
+      <c r="J149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" t="s">
         <v>201</v>
-      </c>
-      <c r="D146" t="s">
-        <v>202</v>
-      </c>
-      <c r="F146" t="s">
-        <v>130</v>
-      </c>
-      <c r="G146">
-        <v>2001</v>
-      </c>
-      <c r="H146">
-        <v>45</v>
-      </c>
-      <c r="I146">
-        <v>-67</v>
-      </c>
-      <c r="J146" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" t="s">
-        <v>203</v>
-      </c>
-      <c r="D147" t="s">
-        <v>42</v>
-      </c>
-      <c r="F147">
-        <v>18</v>
-      </c>
-      <c r="G147">
-        <v>2014</v>
-      </c>
-      <c r="H147">
-        <v>49.815800000000003</v>
-      </c>
-      <c r="I147">
-        <v>-54.115400000000001</v>
-      </c>
-      <c r="J147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C148" t="s">
-        <v>204</v>
-      </c>
-      <c r="D148" t="s">
-        <v>159</v>
-      </c>
-      <c r="F148">
-        <v>10</v>
-      </c>
-      <c r="G148">
-        <v>1978</v>
-      </c>
-      <c r="H148">
-        <v>54</v>
-      </c>
-      <c r="I148">
-        <v>-57.098799999999997</v>
-      </c>
-      <c r="J148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C149" t="s">
-        <v>205</v>
-      </c>
-      <c r="D149" t="s">
-        <v>105</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>1860</v>
-      </c>
-      <c r="H149">
-        <v>50.1935</v>
-      </c>
-      <c r="I149">
-        <v>-60.668100000000003</v>
-      </c>
-      <c r="J149" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C150" t="s">
-        <v>206</v>
       </c>
       <c r="D150" t="s">
         <v>105</v>
@@ -6296,175 +6369,178 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>1990</v>
+        <v>1860</v>
       </c>
       <c r="H150">
-        <v>47.599200000000003</v>
+        <v>50.1935</v>
       </c>
       <c r="I150">
-        <v>-61.491100000000003</v>
+        <v>-60.668100000000003</v>
       </c>
       <c r="J150" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C151" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="D151" t="s">
         <v>105</v>
       </c>
-      <c r="F151" t="s">
-        <v>130</v>
+      <c r="F151">
+        <v>0</v>
       </c>
       <c r="G151">
+        <v>1990</v>
+      </c>
+      <c r="H151">
+        <v>47.599200000000003</v>
+      </c>
+      <c r="I151">
+        <v>-61.491100000000003</v>
+      </c>
+      <c r="J151" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" t="s">
+        <v>104</v>
+      </c>
+      <c r="F152" t="s">
+        <v>126</v>
+      </c>
+      <c r="G152">
         <v>2015</v>
       </c>
-      <c r="H151">
+      <c r="H152">
         <v>50.055900000000001</v>
       </c>
-      <c r="I151">
+      <c r="I152">
         <v>-66.502600000000001</v>
       </c>
-      <c r="J151" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="J152" t="s">
         <v>264</v>
       </c>
-      <c r="C152" t="s">
-        <v>207</v>
-      </c>
-      <c r="D152" t="s">
-        <v>94</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>2017</v>
-      </c>
-      <c r="H152">
-        <v>44.161099999999998</v>
-      </c>
-      <c r="I152">
-        <v>-64.400599999999997</v>
-      </c>
-      <c r="J152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D153" t="s">
         <v>94</v>
       </c>
       <c r="F153">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>1989</v>
+        <v>2017</v>
       </c>
       <c r="H153">
-        <v>43.610399999999998</v>
+        <v>44.161099999999998</v>
       </c>
       <c r="I153">
-        <v>-66.022900000000007</v>
+        <v>-64.400599999999997</v>
       </c>
       <c r="J153" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C154" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D154" t="s">
         <v>94</v>
       </c>
       <c r="F154">
+        <v>400</v>
+      </c>
+      <c r="G154">
+        <v>1989</v>
+      </c>
+      <c r="H154">
+        <v>43.610399999999998</v>
+      </c>
+      <c r="I154">
+        <v>-66.022900000000007</v>
+      </c>
+      <c r="J154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" t="s">
+        <v>205</v>
+      </c>
+      <c r="D155" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155">
         <v>14</v>
       </c>
-      <c r="G154">
+      <c r="G155">
         <v>1981</v>
       </c>
-      <c r="H154">
+      <c r="H155">
         <v>44.873100000000001</v>
       </c>
-      <c r="I154">
+      <c r="I155">
         <v>-62.3232</v>
       </c>
-      <c r="J154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C155" t="s">
-        <v>210</v>
-      </c>
-      <c r="D155" t="s">
-        <v>42</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>2015</v>
-      </c>
-      <c r="H155">
-        <v>47.041499999999999</v>
-      </c>
-      <c r="I155">
-        <v>-55.119700000000002</v>
-      </c>
       <c r="J155" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C156" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D156" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6473,24 +6549,24 @@
         <v>2015</v>
       </c>
       <c r="H156">
-        <v>50.212299999999999</v>
+        <v>47.041499999999999</v>
       </c>
       <c r="I156">
-        <v>-60.230400000000003</v>
+        <v>-55.119700000000002</v>
       </c>
       <c r="J156" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D157" t="s">
         <v>105</v>
@@ -6502,909 +6578,909 @@
         <v>2015</v>
       </c>
       <c r="H157">
+        <v>50.212299999999999</v>
+      </c>
+      <c r="I157">
+        <v>-60.230400000000003</v>
+      </c>
+      <c r="J157" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" t="s">
+        <v>105</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>2015</v>
+      </c>
+      <c r="H158">
         <v>50.215899999999998</v>
       </c>
-      <c r="I157">
+      <c r="I158">
         <v>-60.213900000000002</v>
       </c>
-      <c r="J157" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="J158" t="s">
         <v>264</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C159" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="F159">
+        <v>600</v>
+      </c>
+      <c r="G159">
+        <v>1986</v>
+      </c>
+      <c r="H159">
+        <v>50.683199999999999</v>
+      </c>
+      <c r="I159">
+        <v>-55.615499999999997</v>
+      </c>
+      <c r="J159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C160" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" t="s">
+        <v>211</v>
+      </c>
+      <c r="F160" s="4">
+        <v>43286</v>
+      </c>
+      <c r="G160">
+        <v>2018</v>
+      </c>
+      <c r="H160">
+        <v>45</v>
+      </c>
+      <c r="I160">
+        <v>-67</v>
+      </c>
+      <c r="J160" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161">
+        <v>40</v>
+      </c>
+      <c r="G161">
+        <v>1985</v>
+      </c>
+      <c r="H161">
+        <v>49.489800000000002</v>
+      </c>
+      <c r="I161">
+        <v>-54.0488</v>
+      </c>
+      <c r="J161" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" t="s">
         <v>213</v>
       </c>
-      <c r="D158" t="s">
-        <v>42</v>
-      </c>
-      <c r="F158">
-        <v>600</v>
-      </c>
-      <c r="G158">
-        <v>1986</v>
-      </c>
-      <c r="H158">
-        <v>50.683199999999999</v>
-      </c>
-      <c r="I158">
-        <v>-55.615499999999997</v>
-      </c>
-      <c r="J158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162">
+        <v>226</v>
+      </c>
+      <c r="G162">
+        <v>2014</v>
+      </c>
+      <c r="H162">
+        <v>49.814509999999999</v>
+      </c>
+      <c r="I162">
+        <v>-54.110799999999998</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" t="s">
         <v>214</v>
       </c>
-      <c r="D159" t="s">
-        <v>202</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D163" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2600</v>
+      </c>
+      <c r="G163">
+        <v>1975</v>
+      </c>
+      <c r="H163">
+        <v>48.683300000000003</v>
+      </c>
+      <c r="I163">
+        <v>-53.591999999999999</v>
+      </c>
+      <c r="J163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
         <v>215</v>
       </c>
-      <c r="F159" s="4">
-        <v>43286</v>
-      </c>
-      <c r="G159">
-        <v>2018</v>
-      </c>
-      <c r="H159">
-        <v>45</v>
-      </c>
-      <c r="I159">
-        <v>-67</v>
-      </c>
-      <c r="J159" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="D164" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164">
+        <v>78</v>
+      </c>
+      <c r="G164">
+        <v>1981</v>
+      </c>
+      <c r="H164">
+        <v>44.901600000000002</v>
+      </c>
+      <c r="I164">
+        <v>-62.200499999999998</v>
+      </c>
+      <c r="J164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C165" t="s">
         <v>216</v>
       </c>
-      <c r="D160" t="s">
-        <v>42</v>
-      </c>
-      <c r="F160">
-        <v>40</v>
-      </c>
-      <c r="G160">
-        <v>1985</v>
-      </c>
-      <c r="H160">
-        <v>49.489800000000002</v>
-      </c>
-      <c r="I160">
-        <v>-54.0488</v>
-      </c>
-      <c r="J160" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165">
+        <v>200</v>
+      </c>
+      <c r="G165">
+        <v>1984</v>
+      </c>
+      <c r="H165">
+        <v>49.818800000000003</v>
+      </c>
+      <c r="I165">
+        <v>-54.180900000000001</v>
+      </c>
+      <c r="J165" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" t="s">
         <v>217</v>
-      </c>
-      <c r="D161" t="s">
-        <v>42</v>
-      </c>
-      <c r="F161">
-        <v>226</v>
-      </c>
-      <c r="G161">
-        <v>2014</v>
-      </c>
-      <c r="H161">
-        <v>49.814509999999999</v>
-      </c>
-      <c r="I161">
-        <v>-54.110799999999998</v>
-      </c>
-      <c r="J161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C162" t="s">
-        <v>218</v>
-      </c>
-      <c r="D162" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="4">
-        <v>2600</v>
-      </c>
-      <c r="G162">
-        <v>1975</v>
-      </c>
-      <c r="H162">
-        <v>48.683300000000003</v>
-      </c>
-      <c r="I162">
-        <v>-53.591999999999999</v>
-      </c>
-      <c r="J162" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C163" t="s">
-        <v>219</v>
-      </c>
-      <c r="D163" t="s">
-        <v>94</v>
-      </c>
-      <c r="F163">
-        <v>78</v>
-      </c>
-      <c r="G163">
-        <v>1981</v>
-      </c>
-      <c r="H163">
-        <v>44.901600000000002</v>
-      </c>
-      <c r="I163">
-        <v>-62.200499999999998</v>
-      </c>
-      <c r="J163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C164" t="s">
-        <v>220</v>
-      </c>
-      <c r="D164" t="s">
-        <v>42</v>
-      </c>
-      <c r="F164">
-        <v>200</v>
-      </c>
-      <c r="G164">
-        <v>1984</v>
-      </c>
-      <c r="H164">
-        <v>49.818800000000003</v>
-      </c>
-      <c r="I164">
-        <v>-54.180900000000001</v>
-      </c>
-      <c r="J164" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C165" t="s">
-        <v>221</v>
-      </c>
-      <c r="D165" t="s">
-        <v>94</v>
-      </c>
-      <c r="E165" t="s">
-        <v>222</v>
-      </c>
-      <c r="F165" s="4">
-        <v>11118</v>
-      </c>
-      <c r="G165">
-        <v>2017</v>
-      </c>
-      <c r="H165">
-        <v>44.893500000000003</v>
-      </c>
-      <c r="I165">
-        <v>-62.1</v>
-      </c>
-      <c r="J165" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C166" t="s">
-        <v>223</v>
       </c>
       <c r="D166" t="s">
         <v>94</v>
       </c>
+      <c r="E166" t="s">
+        <v>218</v>
+      </c>
       <c r="F166" s="4">
-        <v>60000</v>
+        <v>11118</v>
       </c>
       <c r="G166">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="H166">
-        <v>44.884799999999998</v>
+        <v>44.893500000000003</v>
       </c>
       <c r="I166">
-        <v>-62.128799999999998</v>
+        <v>-62.1</v>
       </c>
       <c r="J166" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D167" t="s">
         <v>94</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
+        <v>60000</v>
+      </c>
+      <c r="G167">
+        <v>1995</v>
+      </c>
+      <c r="H167">
+        <v>44.884799999999998</v>
+      </c>
+      <c r="I167">
+        <v>-62.128799999999998</v>
+      </c>
+      <c r="J167" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168">
         <v>44</v>
       </c>
-      <c r="G167">
+      <c r="G168">
         <v>1977</v>
       </c>
-      <c r="H167">
+      <c r="H168">
         <v>44.885599999999997</v>
       </c>
-      <c r="I167">
+      <c r="I168">
         <v>-62.120899999999999</v>
       </c>
-      <c r="J167" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C168" t="s">
-        <v>225</v>
-      </c>
-      <c r="D168" t="s">
-        <v>202</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="J168" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C169" t="s">
+        <v>221</v>
+      </c>
+      <c r="D169" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169" t="s">
         <v>102</v>
       </c>
-      <c r="F168">
+      <c r="F169">
         <v>300</v>
       </c>
-      <c r="G168">
+      <c r="G169">
         <v>2017</v>
       </c>
-      <c r="H168">
+      <c r="H169">
         <v>45</v>
       </c>
-      <c r="I168">
+      <c r="I169">
         <v>-67</v>
       </c>
-      <c r="J168" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C169" t="s">
-        <v>226</v>
-      </c>
-      <c r="D169" t="s">
-        <v>94</v>
-      </c>
-      <c r="F169" t="s">
-        <v>130</v>
-      </c>
-      <c r="G169">
-        <v>2020</v>
-      </c>
-      <c r="H169">
-        <v>43.6342</v>
-      </c>
-      <c r="I169">
-        <v>-66.043099999999995</v>
-      </c>
       <c r="J169" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D170" t="s">
         <v>94</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="s">
+        <v>126</v>
+      </c>
+      <c r="G170">
+        <v>2020</v>
+      </c>
+      <c r="H170">
+        <v>43.6342</v>
+      </c>
+      <c r="I170">
+        <v>-66.043099999999995</v>
+      </c>
+      <c r="J170" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C171" t="s">
+        <v>223</v>
+      </c>
+      <c r="D171" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171">
         <v>60</v>
       </c>
-      <c r="G170">
+      <c r="G171">
         <v>1967</v>
       </c>
-      <c r="H170">
+      <c r="H171">
         <v>44.898699999999998</v>
       </c>
-      <c r="I170">
+      <c r="I171">
         <v>-62.198700000000002</v>
       </c>
-      <c r="J170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C172" t="s">
+        <v>224</v>
+      </c>
+      <c r="D172" t="s">
+        <v>42</v>
+      </c>
+      <c r="E172" t="s">
+        <v>280</v>
+      </c>
+      <c r="F172" s="4">
+        <v>21582</v>
+      </c>
+      <c r="G172">
+        <v>2017</v>
+      </c>
+      <c r="H172">
+        <v>46.869199999999999</v>
+      </c>
+      <c r="I172">
+        <v>-55.6158</v>
+      </c>
+      <c r="J172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C173" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" t="s">
+        <v>94</v>
+      </c>
+      <c r="F173">
+        <v>100</v>
+      </c>
+      <c r="G173">
+        <v>2016</v>
+      </c>
+      <c r="H173">
+        <v>43.4863</v>
+      </c>
+      <c r="I173">
+        <v>-65.988399999999999</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C174" t="s">
+        <v>226</v>
+      </c>
+      <c r="D174" t="s">
+        <v>198</v>
+      </c>
+      <c r="F174" t="s">
+        <v>126</v>
+      </c>
+      <c r="G174">
+        <v>2001</v>
+      </c>
+      <c r="H174">
+        <v>45</v>
+      </c>
+      <c r="I174">
+        <v>-67</v>
+      </c>
+      <c r="J174" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C175" t="s">
+        <v>227</v>
+      </c>
+      <c r="D175" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175">
+        <v>200</v>
+      </c>
+      <c r="G175">
+        <v>1945</v>
+      </c>
+      <c r="H175">
+        <v>48.940100000000001</v>
+      </c>
+      <c r="I175">
+        <v>-53.5383</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" t="s">
         <v>228</v>
       </c>
-      <c r="D171" t="s">
-        <v>42</v>
-      </c>
-      <c r="E171" t="s">
-        <v>284</v>
-      </c>
-      <c r="F171" s="4">
-        <v>21582</v>
-      </c>
-      <c r="G171">
-        <v>2017</v>
-      </c>
-      <c r="H171">
-        <v>46.869199999999999</v>
-      </c>
-      <c r="I171">
-        <v>-55.6158</v>
-      </c>
-      <c r="J171" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D176" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176">
+        <v>448</v>
+      </c>
+      <c r="G176">
+        <v>1978</v>
+      </c>
+      <c r="H176">
+        <v>46.857700000000001</v>
+      </c>
+      <c r="I176">
+        <v>-55.622100000000003</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" t="s">
         <v>229</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177">
+        <v>1979</v>
+      </c>
+      <c r="H177">
+        <v>49.583199999999998</v>
+      </c>
+      <c r="I177">
+        <v>-53.765500000000003</v>
+      </c>
+      <c r="J177" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C178" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" t="s">
         <v>94</v>
       </c>
-      <c r="F172">
-        <v>100</v>
-      </c>
-      <c r="G172">
+      <c r="F178">
+        <v>42</v>
+      </c>
+      <c r="G178">
         <v>2016</v>
       </c>
-      <c r="H172">
-        <v>43.4863</v>
-      </c>
-      <c r="I172">
-        <v>-65.988399999999999</v>
-      </c>
-      <c r="J172" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C173" t="s">
-        <v>230</v>
-      </c>
-      <c r="D173" t="s">
-        <v>202</v>
-      </c>
-      <c r="F173" t="s">
-        <v>130</v>
-      </c>
-      <c r="G173">
+      <c r="H178">
+        <v>43.599200000000003</v>
+      </c>
+      <c r="I178">
+        <v>-66.023200000000003</v>
+      </c>
+      <c r="J178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" t="s">
+        <v>231</v>
+      </c>
+      <c r="D179" t="s">
+        <v>198</v>
+      </c>
+      <c r="F179" t="s">
+        <v>126</v>
+      </c>
+      <c r="G179">
         <v>2001</v>
       </c>
-      <c r="H173">
+      <c r="H179">
         <v>45</v>
       </c>
-      <c r="I173">
-        <v>-67</v>
-      </c>
-      <c r="J173" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C174" t="s">
-        <v>231</v>
-      </c>
-      <c r="D174" t="s">
-        <v>42</v>
-      </c>
-      <c r="F174">
+      <c r="I179">
+        <v>-66.819100000000006</v>
+      </c>
+      <c r="J179" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D180" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180">
         <v>200</v>
       </c>
-      <c r="G174">
-        <v>1945</v>
-      </c>
-      <c r="H174">
-        <v>48.940100000000001</v>
-      </c>
-      <c r="I174">
-        <v>-53.5383</v>
-      </c>
-      <c r="J174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C175" t="s">
-        <v>232</v>
-      </c>
-      <c r="D175" t="s">
-        <v>42</v>
-      </c>
-      <c r="F175">
-        <v>448</v>
-      </c>
-      <c r="G175">
+      <c r="G180">
         <v>1978</v>
       </c>
-      <c r="H175">
-        <v>46.857700000000001</v>
-      </c>
-      <c r="I175">
-        <v>-55.622100000000003</v>
-      </c>
-      <c r="J175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="H180">
+        <v>47.490299999999998</v>
+      </c>
+      <c r="I180">
+        <v>-56.197299999999998</v>
+      </c>
+      <c r="J180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" t="s">
         <v>233</v>
       </c>
-      <c r="D176" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176">
-        <v>36</v>
-      </c>
-      <c r="G176">
-        <v>1979</v>
-      </c>
-      <c r="H176">
-        <v>49.583199999999998</v>
-      </c>
-      <c r="I176">
-        <v>-53.765500000000003</v>
-      </c>
-      <c r="J176" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>2008</v>
+      </c>
+      <c r="H181">
+        <v>44.383699999999997</v>
+      </c>
+      <c r="I181">
+        <v>-64.049099999999996</v>
+      </c>
+      <c r="J181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C182" t="s">
         <v>234</v>
       </c>
-      <c r="D177" t="s">
-        <v>94</v>
-      </c>
-      <c r="F177">
-        <v>42</v>
-      </c>
-      <c r="G177">
-        <v>2016</v>
-      </c>
-      <c r="H177">
-        <v>43.599200000000003</v>
-      </c>
-      <c r="I177">
-        <v>-66.023200000000003</v>
-      </c>
-      <c r="J177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D182" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182">
+        <v>400</v>
+      </c>
+      <c r="G182">
+        <v>1984</v>
+      </c>
+      <c r="H182">
+        <v>49.4482</v>
+      </c>
+      <c r="I182">
+        <v>-53.812199999999997</v>
+      </c>
+      <c r="J182" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C183" t="s">
         <v>235</v>
       </c>
-      <c r="D178" t="s">
-        <v>202</v>
-      </c>
-      <c r="F178" t="s">
-        <v>130</v>
-      </c>
-      <c r="G178">
-        <v>2001</v>
-      </c>
-      <c r="H178">
-        <v>45</v>
-      </c>
-      <c r="I178">
-        <v>-66.819100000000006</v>
-      </c>
-      <c r="J178" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D183" t="s">
+        <v>42</v>
+      </c>
+      <c r="E183" t="s">
+        <v>133</v>
+      </c>
+      <c r="F183" s="4">
+        <v>17074</v>
+      </c>
+      <c r="G183">
+        <v>2018</v>
+      </c>
+      <c r="H183">
+        <v>49.433199999999999</v>
+      </c>
+      <c r="I183">
+        <v>-53.790500000000002</v>
+      </c>
+      <c r="J183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" t="s">
         <v>236</v>
       </c>
-      <c r="D179" t="s">
-        <v>42</v>
-      </c>
-      <c r="F179">
+      <c r="D184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184">
         <v>200</v>
       </c>
-      <c r="G179">
+      <c r="G184">
         <v>1978</v>
       </c>
-      <c r="H179">
-        <v>47.490299999999998</v>
-      </c>
-      <c r="I179">
-        <v>-56.197299999999998</v>
-      </c>
-      <c r="J179" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="H184">
+        <v>47.383200000000002</v>
+      </c>
+      <c r="I184">
+        <v>-56.982300000000002</v>
+      </c>
+      <c r="J184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" t="s">
         <v>237</v>
       </c>
-      <c r="D180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F180">
-        <v>24</v>
-      </c>
-      <c r="G180">
-        <v>2008</v>
-      </c>
-      <c r="H180">
-        <v>44.383699999999997</v>
-      </c>
-      <c r="I180">
-        <v>-64.049099999999996</v>
-      </c>
-      <c r="J180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="D185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185">
+        <v>770</v>
+      </c>
+      <c r="G185">
+        <v>2014</v>
+      </c>
+      <c r="H185">
+        <v>49.810400000000001</v>
+      </c>
+      <c r="I185">
+        <v>-54.110999999999997</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" t="s">
         <v>238</v>
-      </c>
-      <c r="D181" t="s">
-        <v>42</v>
-      </c>
-      <c r="F181">
-        <v>400</v>
-      </c>
-      <c r="G181">
-        <v>1984</v>
-      </c>
-      <c r="H181">
-        <v>49.4482</v>
-      </c>
-      <c r="I181">
-        <v>-53.812199999999997</v>
-      </c>
-      <c r="J181" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C182" t="s">
-        <v>239</v>
-      </c>
-      <c r="D182" t="s">
-        <v>42</v>
-      </c>
-      <c r="E182" t="s">
-        <v>137</v>
-      </c>
-      <c r="F182" s="4">
-        <v>17074</v>
-      </c>
-      <c r="G182">
-        <v>2018</v>
-      </c>
-      <c r="H182">
-        <v>49.433199999999999</v>
-      </c>
-      <c r="I182">
-        <v>-53.790500000000002</v>
-      </c>
-      <c r="J182" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C183" t="s">
-        <v>240</v>
-      </c>
-      <c r="D183" t="s">
-        <v>42</v>
-      </c>
-      <c r="F183">
-        <v>200</v>
-      </c>
-      <c r="G183">
-        <v>1978</v>
-      </c>
-      <c r="H183">
-        <v>47.383200000000002</v>
-      </c>
-      <c r="I183">
-        <v>-56.982300000000002</v>
-      </c>
-      <c r="J183" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C184" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" t="s">
-        <v>42</v>
-      </c>
-      <c r="F184">
-        <v>770</v>
-      </c>
-      <c r="G184">
-        <v>2014</v>
-      </c>
-      <c r="H184">
-        <v>49.810400000000001</v>
-      </c>
-      <c r="I184">
-        <v>-54.110999999999997</v>
-      </c>
-      <c r="J184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C185" t="s">
-        <v>242</v>
-      </c>
-      <c r="D185" t="s">
-        <v>94</v>
-      </c>
-      <c r="F185">
-        <v>156</v>
-      </c>
-      <c r="G185">
-        <v>1971</v>
-      </c>
-      <c r="H185">
-        <v>44.820999999999998</v>
-      </c>
-      <c r="I185">
-        <v>-62.380299999999998</v>
-      </c>
-      <c r="J185" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C186" t="s">
-        <v>243</v>
       </c>
       <c r="D186" t="s">
         <v>94</v>
       </c>
       <c r="F186">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="G186">
+        <v>1971</v>
+      </c>
+      <c r="H186">
+        <v>44.820999999999998</v>
+      </c>
+      <c r="I186">
+        <v>-62.380299999999998</v>
+      </c>
+      <c r="J186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" t="s">
+        <v>239</v>
+      </c>
+      <c r="D187" t="s">
+        <v>94</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187">
         <v>2016</v>
       </c>
-      <c r="H186">
+      <c r="H187">
         <v>43.6843</v>
       </c>
-      <c r="I186">
+      <c r="I187">
         <v>-65.030299999999997</v>
       </c>
-      <c r="J186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C187" t="s">
-        <v>244</v>
-      </c>
-      <c r="D187" t="s">
-        <v>42</v>
-      </c>
-      <c r="F187" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G187">
-        <v>1989</v>
-      </c>
-      <c r="H187">
-        <v>47.506</v>
-      </c>
-      <c r="I187">
-        <v>-57.434899999999999</v>
-      </c>
       <c r="J187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D188" t="s">
         <v>42</v>
@@ -7413,546 +7489,575 @@
         <v>2000</v>
       </c>
       <c r="G188">
+        <v>1989</v>
+      </c>
+      <c r="H188">
+        <v>47.506</v>
+      </c>
+      <c r="I188">
+        <v>-57.434899999999999</v>
+      </c>
+      <c r="J188" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" t="s">
+        <v>241</v>
+      </c>
+      <c r="D189" t="s">
+        <v>42</v>
+      </c>
+      <c r="F189" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G189">
         <v>1943</v>
       </c>
-      <c r="H188">
+      <c r="H189">
         <v>50.899900000000002</v>
       </c>
-      <c r="I188">
+      <c r="I189">
         <v>-55.765500000000003</v>
       </c>
-      <c r="J188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C189" t="s">
-        <v>246</v>
-      </c>
-      <c r="D189" t="s">
-        <v>94</v>
-      </c>
-      <c r="F189">
-        <v>200</v>
-      </c>
-      <c r="G189">
-        <v>2003</v>
-      </c>
-      <c r="H189">
-        <v>43.931600000000003</v>
-      </c>
-      <c r="I189">
-        <v>-59.902999999999999</v>
-      </c>
       <c r="J189" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C190" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D190" t="s">
         <v>94</v>
       </c>
-      <c r="F190" s="4">
-        <v>141000</v>
+      <c r="F190">
+        <v>200</v>
       </c>
       <c r="G190">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="H190">
-        <v>46.012999999999998</v>
+        <v>43.931600000000003</v>
       </c>
       <c r="I190">
-        <v>-59.735999999999997</v>
+        <v>-59.902999999999999</v>
       </c>
       <c r="J190" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D191" t="s">
         <v>94</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="4">
+        <v>141000</v>
+      </c>
+      <c r="G191">
+        <v>2002</v>
+      </c>
+      <c r="H191">
+        <v>46.012999999999998</v>
+      </c>
+      <c r="I191">
+        <v>-59.735999999999997</v>
+      </c>
+      <c r="J191" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C192" t="s">
+        <v>244</v>
+      </c>
+      <c r="D192" t="s">
+        <v>94</v>
+      </c>
+      <c r="F192">
         <v>0</v>
       </c>
-      <c r="G191">
+      <c r="G192">
         <v>1959</v>
       </c>
-      <c r="H191">
+      <c r="H192">
         <v>43.410800000000002</v>
       </c>
-      <c r="I191">
+      <c r="I192">
         <v>-66.012600000000006</v>
       </c>
-      <c r="J191" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="J192" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C193" t="s">
+        <v>245</v>
+      </c>
+      <c r="D193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193" t="s">
+        <v>126</v>
+      </c>
+      <c r="G193">
+        <v>1975</v>
+      </c>
+      <c r="H193">
+        <v>50</v>
+      </c>
+      <c r="I193">
+        <v>-54</v>
+      </c>
+      <c r="J193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C194" t="s">
+        <v>246</v>
+      </c>
+      <c r="D194" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" s="4">
+        <v>3400</v>
+      </c>
+      <c r="G194">
+        <v>1974</v>
+      </c>
+      <c r="H194">
+        <v>48.704799999999999</v>
+      </c>
+      <c r="I194">
+        <v>-53.625</v>
+      </c>
+      <c r="J194" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C195" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" s="4">
+        <v>3046</v>
+      </c>
+      <c r="G195">
+        <v>2014</v>
+      </c>
+      <c r="H195">
+        <v>49.8185</v>
+      </c>
+      <c r="I195">
+        <v>-54.113700000000001</v>
+      </c>
+      <c r="J195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C196" t="s">
+        <v>248</v>
+      </c>
+      <c r="D196" t="s">
+        <v>42</v>
+      </c>
+      <c r="E196" t="s">
+        <v>143</v>
+      </c>
+      <c r="F196" s="4">
+        <v>3156</v>
+      </c>
+      <c r="G196">
+        <v>2018</v>
+      </c>
+      <c r="H196">
+        <v>49.579799999999999</v>
+      </c>
+      <c r="I196">
+        <v>-53.778799999999997</v>
+      </c>
+      <c r="J196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C197" t="s">
         <v>249</v>
       </c>
-      <c r="D192" t="s">
-        <v>42</v>
-      </c>
-      <c r="F192" t="s">
-        <v>130</v>
-      </c>
-      <c r="G192">
-        <v>1975</v>
-      </c>
-      <c r="H192">
-        <v>50</v>
-      </c>
-      <c r="I192">
-        <v>-54</v>
-      </c>
-      <c r="J192" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D197" t="s">
+        <v>198</v>
+      </c>
+      <c r="F197" t="s">
+        <v>126</v>
+      </c>
+      <c r="G197">
+        <v>2001</v>
+      </c>
+      <c r="H197">
+        <v>45</v>
+      </c>
+      <c r="I197">
+        <v>-67</v>
+      </c>
+      <c r="J197" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C198" t="s">
         <v>250</v>
-      </c>
-      <c r="D193" t="s">
-        <v>42</v>
-      </c>
-      <c r="F193" s="4">
-        <v>3400</v>
-      </c>
-      <c r="G193">
-        <v>1974</v>
-      </c>
-      <c r="H193">
-        <v>48.704799999999999</v>
-      </c>
-      <c r="I193">
-        <v>-53.625</v>
-      </c>
-      <c r="J193" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C194" t="s">
-        <v>251</v>
-      </c>
-      <c r="D194" t="s">
-        <v>42</v>
-      </c>
-      <c r="F194" s="4">
-        <v>3046</v>
-      </c>
-      <c r="G194">
-        <v>2014</v>
-      </c>
-      <c r="H194">
-        <v>49.8185</v>
-      </c>
-      <c r="I194">
-        <v>-54.113700000000001</v>
-      </c>
-      <c r="J194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C195" t="s">
-        <v>252</v>
-      </c>
-      <c r="D195" t="s">
-        <v>42</v>
-      </c>
-      <c r="E195" t="s">
-        <v>147</v>
-      </c>
-      <c r="F195" s="4">
-        <v>3156</v>
-      </c>
-      <c r="G195">
-        <v>2018</v>
-      </c>
-      <c r="H195">
-        <v>49.579799999999999</v>
-      </c>
-      <c r="I195">
-        <v>-53.778799999999997</v>
-      </c>
-      <c r="J195" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C196" t="s">
-        <v>253</v>
-      </c>
-      <c r="D196" t="s">
-        <v>202</v>
-      </c>
-      <c r="F196" t="s">
-        <v>130</v>
-      </c>
-      <c r="G196">
-        <v>2001</v>
-      </c>
-      <c r="H196">
-        <v>45</v>
-      </c>
-      <c r="I196">
-        <v>-67</v>
-      </c>
-      <c r="J196" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C197" t="s">
-        <v>254</v>
-      </c>
-      <c r="D197" t="s">
-        <v>94</v>
-      </c>
-      <c r="F197" t="s">
-        <v>130</v>
-      </c>
-      <c r="G197">
-        <v>2020</v>
-      </c>
-      <c r="H197">
-        <v>43.628300000000003</v>
-      </c>
-      <c r="I197">
-        <v>-66.057299999999998</v>
-      </c>
-      <c r="J197" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C198" t="s">
-        <v>255</v>
       </c>
       <c r="D198" t="s">
         <v>94</v>
       </c>
       <c r="F198" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G198">
+        <v>2020</v>
+      </c>
+      <c r="H198">
+        <v>43.628300000000003</v>
+      </c>
+      <c r="I198">
+        <v>-66.057299999999998</v>
+      </c>
+      <c r="J198" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C199" t="s">
+        <v>251</v>
+      </c>
+      <c r="D199" t="s">
+        <v>94</v>
+      </c>
+      <c r="F199" t="s">
+        <v>126</v>
+      </c>
+      <c r="G199">
         <v>1971</v>
       </c>
-      <c r="H198">
+      <c r="H199">
         <v>47.199800000000003</v>
       </c>
-      <c r="I198">
+      <c r="I199">
         <v>-60.148600000000002</v>
       </c>
-      <c r="J198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="J199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C200" t="s">
+        <v>252</v>
+      </c>
+      <c r="D200" t="s">
+        <v>42</v>
+      </c>
+      <c r="F200">
+        <v>176</v>
+      </c>
+      <c r="G200">
+        <v>1975</v>
+      </c>
+      <c r="H200">
+        <v>46.894500000000001</v>
+      </c>
+      <c r="I200">
+        <v>-55.6051</v>
+      </c>
+      <c r="J200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C201" t="s">
+        <v>253</v>
+      </c>
+      <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201">
+        <v>400</v>
+      </c>
+      <c r="G201">
+        <v>2012</v>
+      </c>
+      <c r="H201">
+        <v>49.811999999999998</v>
+      </c>
+      <c r="I201">
+        <v>-54.119399999999999</v>
+      </c>
+      <c r="J201" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C202" t="s">
+        <v>254</v>
+      </c>
+      <c r="D202" t="s">
+        <v>198</v>
+      </c>
+      <c r="F202" t="s">
+        <v>126</v>
+      </c>
+      <c r="G202">
+        <v>1935</v>
+      </c>
+      <c r="H202">
+        <v>45</v>
+      </c>
+      <c r="I202">
+        <v>-67</v>
+      </c>
+      <c r="J202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" t="s">
+        <v>255</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203" t="s">
+        <v>126</v>
+      </c>
+      <c r="G203">
+        <v>1975</v>
+      </c>
+      <c r="H203">
+        <v>50</v>
+      </c>
+      <c r="I203">
+        <v>-54</v>
+      </c>
+      <c r="J203" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" t="s">
+        <v>256</v>
+      </c>
+      <c r="D204" t="s">
+        <v>42</v>
+      </c>
+      <c r="F204">
+        <v>800</v>
+      </c>
+      <c r="G204">
+        <v>1943</v>
+      </c>
+      <c r="H204">
+        <v>51.583199999999998</v>
+      </c>
+      <c r="I204">
+        <v>-55.348799999999997</v>
+      </c>
+      <c r="J204" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C205" t="s">
+        <v>257</v>
+      </c>
+      <c r="D205" t="s">
+        <v>105</v>
+      </c>
+      <c r="F205" t="s">
+        <v>126</v>
+      </c>
+      <c r="G205">
+        <v>2015</v>
+      </c>
+      <c r="H205">
+        <v>50.171999999999997</v>
+      </c>
+      <c r="I205">
+        <v>-60.292499999999997</v>
+      </c>
+      <c r="J205" t="s">
         <v>264</v>
       </c>
-      <c r="C199" t="s">
-        <v>256</v>
-      </c>
-      <c r="D199" t="s">
-        <v>42</v>
-      </c>
-      <c r="F199">
-        <v>176</v>
-      </c>
-      <c r="G199">
-        <v>1975</v>
-      </c>
-      <c r="H199">
-        <v>46.894500000000001</v>
-      </c>
-      <c r="I199">
-        <v>-55.6051</v>
-      </c>
-      <c r="J199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C200" t="s">
-        <v>257</v>
-      </c>
-      <c r="D200" t="s">
-        <v>42</v>
-      </c>
-      <c r="F200">
-        <v>400</v>
-      </c>
-      <c r="G200">
-        <v>2012</v>
-      </c>
-      <c r="H200">
-        <v>49.811999999999998</v>
-      </c>
-      <c r="I200">
-        <v>-54.119399999999999</v>
-      </c>
-      <c r="J200" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C206" t="s">
         <v>258</v>
       </c>
-      <c r="D201" t="s">
-        <v>202</v>
-      </c>
-      <c r="F201" t="s">
-        <v>130</v>
-      </c>
-      <c r="G201">
-        <v>1935</v>
-      </c>
-      <c r="H201">
+      <c r="D206" t="s">
+        <v>198</v>
+      </c>
+      <c r="F206" t="s">
+        <v>126</v>
+      </c>
+      <c r="G206">
+        <v>2001</v>
+      </c>
+      <c r="H206">
         <v>45</v>
       </c>
-      <c r="I201">
+      <c r="I206">
         <v>-67</v>
       </c>
-      <c r="J201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="J206" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C207" t="s">
         <v>259</v>
       </c>
-      <c r="D202" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" t="s">
-        <v>130</v>
-      </c>
-      <c r="G202">
-        <v>1975</v>
-      </c>
-      <c r="H202">
-        <v>50</v>
-      </c>
-      <c r="I202">
-        <v>-54</v>
-      </c>
-      <c r="J202" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C203" t="s">
-        <v>260</v>
-      </c>
-      <c r="D203" t="s">
-        <v>42</v>
-      </c>
-      <c r="F203">
-        <v>800</v>
-      </c>
-      <c r="G203">
-        <v>1943</v>
-      </c>
-      <c r="H203">
-        <v>51.583199999999998</v>
-      </c>
-      <c r="I203">
-        <v>-55.348799999999997</v>
-      </c>
-      <c r="J203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C204" t="s">
-        <v>261</v>
-      </c>
-      <c r="D204" t="s">
-        <v>105</v>
-      </c>
-      <c r="F204" t="s">
-        <v>130</v>
-      </c>
-      <c r="G204">
-        <v>2015</v>
-      </c>
-      <c r="H204">
-        <v>50.171999999999997</v>
-      </c>
-      <c r="I204">
-        <v>-60.292499999999997</v>
-      </c>
-      <c r="J204" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C205" t="s">
-        <v>262</v>
-      </c>
-      <c r="D205" t="s">
-        <v>202</v>
-      </c>
-      <c r="F205" t="s">
-        <v>130</v>
-      </c>
-      <c r="G205">
-        <v>2001</v>
-      </c>
-      <c r="H205">
-        <v>45</v>
-      </c>
-      <c r="I205">
-        <v>-67</v>
-      </c>
-      <c r="J205" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C206" t="s">
-        <v>263</v>
-      </c>
-      <c r="D206" t="s">
-        <v>42</v>
-      </c>
-      <c r="F206">
+      <c r="D207" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207">
         <v>200</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <v>1944</v>
       </c>
-      <c r="H206">
+      <c r="H207">
         <v>47.627800000000001</v>
       </c>
-      <c r="I206">
+      <c r="I207">
         <v>-58.546700000000001</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J207" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
-    <sortCondition ref="C2:C100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
+    <sortCondition ref="C2:C101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
